--- a/data/trans_orig/P16A02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>37522</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27009</v>
+        <v>27089</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50293</v>
+        <v>49667</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1374399026245883</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09893067791150326</v>
+        <v>0.09922424626093596</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1842154558614054</v>
+        <v>0.1819231746154212</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -765,19 +765,19 @@
         <v>47684</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35443</v>
+        <v>36234</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59761</v>
+        <v>62460</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1828124277514876</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1358801363335349</v>
+        <v>0.1389123142528841</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2291115833286281</v>
+        <v>0.2394590792959798</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -786,19 +786,19 @@
         <v>85207</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68843</v>
+        <v>68214</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>102031</v>
+        <v>101022</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1596089135694505</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1289553718241878</v>
+        <v>0.1277787035110962</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1911241290692745</v>
+        <v>0.1892335620100322</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>235488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>222717</v>
+        <v>223343</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>246001</v>
+        <v>245921</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8625600973754117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8157845441385948</v>
+        <v>0.8180768253845788</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9010693220884969</v>
+        <v>0.900775753739064</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>197</v>
@@ -836,19 +836,19 @@
         <v>213154</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>201077</v>
+        <v>198378</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>225395</v>
+        <v>224604</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8171875722485125</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7708884166713718</v>
+        <v>0.7605409207040201</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.864119863666465</v>
+        <v>0.8610876857471158</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>431</v>
@@ -857,19 +857,19 @@
         <v>448641</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>431817</v>
+        <v>432826</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>465005</v>
+        <v>465634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8403910864305495</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8088758709307255</v>
+        <v>0.8107664379899677</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8710446281758123</v>
+        <v>0.8722212964889038</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>46980</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34465</v>
+        <v>35218</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62352</v>
+        <v>60557</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09527947649787748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06989841532275162</v>
+        <v>0.07142538941850078</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1264559226962773</v>
+        <v>0.1228151391638692</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -982,19 +982,19 @@
         <v>112216</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>95134</v>
+        <v>94284</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132323</v>
+        <v>131205</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2226734302927899</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1887771285013654</v>
+        <v>0.1870912890408823</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2625731368598934</v>
+        <v>0.2603537781598811</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>157</v>
@@ -1003,19 +1003,19 @@
         <v>159196</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>135396</v>
+        <v>138860</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>182900</v>
+        <v>182531</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1596711584845719</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1358004624177538</v>
+        <v>0.1392748148213325</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.183445983446211</v>
+        <v>0.1830755421900791</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>446095</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>430723</v>
+        <v>432518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>458610</v>
+        <v>457857</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9047205235021225</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8735440773037223</v>
+        <v>0.8771848608361307</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9301015846772483</v>
+        <v>0.9285746105814985</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>387</v>
@@ -1053,19 +1053,19 @@
         <v>391733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>371626</v>
+        <v>372744</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>408815</v>
+        <v>409665</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7773265697072101</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7374268631401065</v>
+        <v>0.7396462218401189</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8112228714986346</v>
+        <v>0.8129087109591177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>807</v>
@@ -1074,19 +1074,19 @@
         <v>837828</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>814124</v>
+        <v>814493</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>861628</v>
+        <v>858164</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8403288415154281</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8165540165537886</v>
+        <v>0.8169244578099207</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8641995375822462</v>
+        <v>0.8607251851786675</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>34480</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24712</v>
+        <v>25525</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46124</v>
+        <v>45673</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1081388567107874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07750387993429735</v>
+        <v>0.08005585038493146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1446598284182342</v>
+        <v>0.1432438402035138</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -1199,19 +1199,19 @@
         <v>96246</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80079</v>
+        <v>80597</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115008</v>
+        <v>113455</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2869475611082383</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2387473502773531</v>
+        <v>0.2402931553228808</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3428843121531813</v>
+        <v>0.3382565142095537</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -1220,19 +1220,19 @@
         <v>130725</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>110900</v>
+        <v>110122</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151452</v>
+        <v>149865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.199806965374383</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1695050414924502</v>
+        <v>0.1683162044840441</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2314868215546452</v>
+        <v>0.2290614109461227</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>284366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>272722</v>
+        <v>273173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>294134</v>
+        <v>293321</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8918611432892126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8553401715817656</v>
+        <v>0.8567561597964868</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9224961200657025</v>
+        <v>0.9199441496150688</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>242</v>
@@ -1270,19 +1270,19 @@
         <v>239166</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>220404</v>
+        <v>221957</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255333</v>
+        <v>254815</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7130524388917616</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6571156878468185</v>
+        <v>0.661743485790446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7612526497226469</v>
+        <v>0.759706844677119</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>517</v>
@@ -1291,19 +1291,19 @@
         <v>523533</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>502806</v>
+        <v>504393</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>543358</v>
+        <v>544136</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.800193034625617</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7685131784453544</v>
+        <v>0.7709385890538774</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8304949585075495</v>
+        <v>0.8316837955159566</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>53478</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40908</v>
+        <v>42032</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67526</v>
+        <v>68982</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1491011326975183</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.114054309275097</v>
+        <v>0.1171886387182937</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1882675624828232</v>
+        <v>0.1923253634765872</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -1416,19 +1416,19 @@
         <v>83278</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68815</v>
+        <v>68980</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98683</v>
+        <v>99650</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2241926132340469</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1852577181510904</v>
+        <v>0.1857026236860061</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2656664340600091</v>
+        <v>0.2682675364278671</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -1437,19 +1437,19 @@
         <v>136756</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115944</v>
+        <v>117776</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>156808</v>
+        <v>159437</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1873043157405304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1587996460124584</v>
+        <v>0.1613089714164841</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2147676891548659</v>
+        <v>0.2183686466474504</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>305193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>291145</v>
+        <v>289689</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>317763</v>
+        <v>316639</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8508988673024817</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8117324375171768</v>
+        <v>0.8076746365234122</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8859456907249029</v>
+        <v>0.8828113612817061</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>299</v>
@@ -1487,19 +1487,19 @@
         <v>288178</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>272773</v>
+        <v>271806</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>302641</v>
+        <v>302476</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7758073867659532</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7343335659399909</v>
+        <v>0.7317324635721331</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8147422818489097</v>
+        <v>0.8142973763139939</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>605</v>
@@ -1508,19 +1508,19 @@
         <v>593371</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>573319</v>
+        <v>570690</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>614183</v>
+        <v>612351</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8126956842594696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.785232310845134</v>
+        <v>0.7816313533525495</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8412003539875416</v>
+        <v>0.8386910285835159</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>28841</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20255</v>
+        <v>20120</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40013</v>
+        <v>39504</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1418594591466734</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09962471707633772</v>
+        <v>0.09896069551773973</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1968114537861351</v>
+        <v>0.1943057999310294</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -1633,19 +1633,19 @@
         <v>52440</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39757</v>
+        <v>39092</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66707</v>
+        <v>65419</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2525165751146792</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1914469100343862</v>
+        <v>0.1882406342168793</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3212194152327006</v>
+        <v>0.3150176255761492</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -1654,19 +1654,19 @@
         <v>81281</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67156</v>
+        <v>65483</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98094</v>
+        <v>98904</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1977749855687805</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1634061797109265</v>
+        <v>0.1593356644862777</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2386861925975147</v>
+        <v>0.2406559447334026</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>174467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>163295</v>
+        <v>163804</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>183053</v>
+        <v>183188</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8581405408533266</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8031885462138647</v>
+        <v>0.8056942000689706</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9003752829236618</v>
+        <v>0.9010393044822602</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>148</v>
@@ -1704,19 +1704,19 @@
         <v>155228</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>140961</v>
+        <v>142249</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>167911</v>
+        <v>168576</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7474834248853208</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6787805847672991</v>
+        <v>0.6849823744238506</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8085530899656136</v>
+        <v>0.8117593657831205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>325</v>
@@ -1725,19 +1725,19 @@
         <v>329695</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>312882</v>
+        <v>312072</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>343820</v>
+        <v>345493</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8022250144312195</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7613138074024852</v>
+        <v>0.7593440552665974</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8365938202890734</v>
+        <v>0.8406643355137222</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>36405</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26617</v>
+        <v>26730</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48111</v>
+        <v>48776</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1344313790548234</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09828495081619348</v>
+        <v>0.09870279697681421</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1776555054850208</v>
+        <v>0.1801103163457981</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -1850,19 +1850,19 @@
         <v>68564</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55023</v>
+        <v>53716</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84030</v>
+        <v>82602</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2465062085282215</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1978232137282826</v>
+        <v>0.1931239808201004</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3021098589815823</v>
+        <v>0.2969744266880238</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>104</v>
@@ -1871,19 +1871,19 @@
         <v>104970</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>86765</v>
+        <v>88336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>125702</v>
+        <v>126355</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1912173471980148</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1580544696189314</v>
+        <v>0.1609173079540538</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2289839077948937</v>
+        <v>0.2301743564993134</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>234406</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222700</v>
+        <v>222035</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244194</v>
+        <v>244081</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8655686209451766</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8223444945149793</v>
+        <v>0.8198896836542019</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9017150491838065</v>
+        <v>0.9012972030231858</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>204</v>
@@ -1921,19 +1921,19 @@
         <v>209580</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194114</v>
+        <v>195542</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>223121</v>
+        <v>224428</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7534937914717785</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6978901410184178</v>
+        <v>0.7030255733119762</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8021767862717175</v>
+        <v>0.8068760191798997</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>432</v>
@@ -1942,19 +1942,19 @@
         <v>443985</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>423253</v>
+        <v>422600</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>462190</v>
+        <v>460619</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8087826528019852</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7710160922051061</v>
+        <v>0.7698256435006865</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8419455303810683</v>
+        <v>0.8390826920459462</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>86649</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70263</v>
+        <v>70524</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105814</v>
+        <v>104251</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.140886237101413</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1142440796819841</v>
+        <v>0.1146688660642884</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.172046940468795</v>
+        <v>0.1695063609762937</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>129</v>
@@ -2067,19 +2067,19 @@
         <v>133292</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>114321</v>
+        <v>111313</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>157723</v>
+        <v>154065</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2088497436466894</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1791255917247747</v>
+        <v>0.1744126555625749</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2471304670240482</v>
+        <v>0.2413989498227271</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>217</v>
@@ -2088,19 +2088,19 @@
         <v>219941</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>193130</v>
+        <v>193973</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>248181</v>
+        <v>247559</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1754968421446388</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1541036241769299</v>
+        <v>0.1547763093782256</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1980307649195651</v>
+        <v>0.1975342754475146</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>528378</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>509213</v>
+        <v>510776</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>544764</v>
+        <v>544503</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.859113762898587</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8279530595312051</v>
+        <v>0.8304936390237064</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.885755920318016</v>
+        <v>0.8853311339357115</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>492</v>
@@ -2138,19 +2138,19 @@
         <v>504927</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>480496</v>
+        <v>484154</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>523898</v>
+        <v>526906</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7911502563533106</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7528695329759518</v>
+        <v>0.7586010501772729</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8208744082752253</v>
+        <v>0.825587344437425</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1002</v>
@@ -2159,19 +2159,19 @@
         <v>1033305</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1005065</v>
+        <v>1005687</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1060116</v>
+        <v>1059273</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8245031578553612</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8019692350804346</v>
+        <v>0.8024657245524852</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8458963758230698</v>
+        <v>0.845223690621774</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>131438</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>112978</v>
+        <v>113208</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>155390</v>
+        <v>153655</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1769549936717545</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.152101716263593</v>
+        <v>0.1524112153539968</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2092016284162815</v>
+        <v>0.2068659599177779</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>200</v>
@@ -2284,19 +2284,19 @@
         <v>212897</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>186142</v>
+        <v>191130</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>237365</v>
+        <v>240169</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2717220784317869</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2375744430751912</v>
+        <v>0.2439401167733481</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3029499693160432</v>
+        <v>0.3065296432510513</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>336</v>
@@ -2305,19 +2305,19 @@
         <v>344335</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>312687</v>
+        <v>313542</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>376508</v>
+        <v>377275</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2256031253218709</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.204867767994051</v>
+        <v>0.2054280613927798</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2466821476033227</v>
+        <v>0.2471846730850331</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>611339</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>587387</v>
+        <v>589122</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>629799</v>
+        <v>629569</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8230450063282455</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7907983715837187</v>
+        <v>0.7931340400822221</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8478982837364072</v>
+        <v>0.8475887846460032</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>545</v>
@@ -2355,19 +2355,19 @@
         <v>570614</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>546146</v>
+        <v>543342</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>597369</v>
+        <v>592381</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7282779215682131</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6970500306839571</v>
+        <v>0.6934703567489489</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7624255569248088</v>
+        <v>0.7560598832266521</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1144</v>
@@ -2376,19 +2376,19 @@
         <v>1181953</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1149780</v>
+        <v>1149013</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1213601</v>
+        <v>1212746</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7743968746781291</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7533178523966773</v>
+        <v>0.7528153269149667</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7951322320059487</v>
+        <v>0.79457193860722</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>455794</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>418733</v>
+        <v>421899</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>497494</v>
+        <v>499310</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1391513980117829</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1278369250593171</v>
+        <v>0.1288035802922524</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1518821427036345</v>
+        <v>0.1524366845382654</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>783</v>
@@ -2501,19 +2501,19 @@
         <v>806617</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>753617</v>
+        <v>760716</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>858102</v>
+        <v>856769</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2387007226089774</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2230165773152083</v>
+        <v>0.2251172689902149</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2539365865744282</v>
+        <v>0.2535422224601881</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1247</v>
@@ -2522,19 +2522,19 @@
         <v>1262411</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1199500</v>
+        <v>1204242</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1326754</v>
+        <v>1335304</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1897014865769265</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1802478810361731</v>
+        <v>0.1809605769659962</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1993702765569464</v>
+        <v>0.2006551738634096</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2819731</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2778031</v>
+        <v>2776215</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2856792</v>
+        <v>2853626</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8608486019882171</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8481178572963655</v>
+        <v>0.8475633154617346</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8721630749406829</v>
+        <v>0.8711964197077475</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2514</v>
@@ -2572,19 +2572,19 @@
         <v>2572580</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2521095</v>
+        <v>2522428</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2625580</v>
+        <v>2618481</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7612992773910227</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7460634134255718</v>
+        <v>0.746457777539812</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7769834226847919</v>
+        <v>0.7748827310097853</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5263</v>
@@ -2593,19 +2593,19 @@
         <v>5392311</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5327968</v>
+        <v>5319418</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5455222</v>
+        <v>5450480</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8102985134230735</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8006297234430536</v>
+        <v>0.7993448261365904</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8197521189638269</v>
+        <v>0.8190394230340039</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>49490</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36377</v>
+        <v>37942</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63545</v>
+        <v>63427</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.169372493360891</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.124494190826764</v>
+        <v>0.1298528798608365</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2174749604656594</v>
+        <v>0.2170711008236071</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -2962,19 +2962,19 @@
         <v>72959</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57030</v>
+        <v>57605</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90968</v>
+        <v>89402</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2569140848053716</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2008220820012467</v>
+        <v>0.2028456656868066</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.320331435093825</v>
+        <v>0.3148148295742171</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -2983,19 +2983,19 @@
         <v>122449</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102699</v>
+        <v>101640</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144275</v>
+        <v>143305</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2125193914710721</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1782423432185316</v>
+        <v>0.1764044172909476</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2504015135054474</v>
+        <v>0.2487179848561379</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>242705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>228650</v>
+        <v>228768</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>255818</v>
+        <v>254253</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.830627506639109</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7825250395343405</v>
+        <v>0.7829288991763929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8755058091732359</v>
+        <v>0.8701471201391635</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -3033,19 +3033,19 @@
         <v>211023</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>193014</v>
+        <v>194580</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>226952</v>
+        <v>226377</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7430859151946283</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6796685649061747</v>
+        <v>0.6851851704257829</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7991779179987532</v>
+        <v>0.7971543343131934</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>421</v>
@@ -3054,19 +3054,19 @@
         <v>453727</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>431901</v>
+        <v>432871</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>473477</v>
+        <v>474536</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7874806085289279</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7495984864945525</v>
+        <v>0.7512820151438621</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8217576567814681</v>
+        <v>0.8235955827090523</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>106042</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>88448</v>
+        <v>88935</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126449</v>
+        <v>127554</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2097660033746888</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1749619113046146</v>
+        <v>0.1759255539727405</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2501331507732148</v>
+        <v>0.2523179027867927</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -3179,19 +3179,19 @@
         <v>181443</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>157754</v>
+        <v>156678</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>204186</v>
+        <v>202125</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3471053386383701</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3017880669624539</v>
+        <v>0.29972934262872</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3906140978850492</v>
+        <v>0.3866716807971922</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>262</v>
@@ -3200,19 +3200,19 @@
         <v>287485</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>259274</v>
+        <v>259651</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>318152</v>
+        <v>316653</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2795845656127159</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2521491015546808</v>
+        <v>0.2525156792140211</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3094083786070551</v>
+        <v>0.307950542856629</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>399485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>379078</v>
+        <v>377973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417079</v>
+        <v>416592</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7902339966253111</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7498668492267853</v>
+        <v>0.7476820972132078</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8250380886953854</v>
+        <v>0.8240744460272595</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>316</v>
@@ -3250,19 +3250,19 @@
         <v>341288</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>318545</v>
+        <v>320606</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>364977</v>
+        <v>366053</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6528946613616299</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6093859021149508</v>
+        <v>0.6133283192028077</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6982119330375461</v>
+        <v>0.70027065737128</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>689</v>
@@ -3271,19 +3271,19 @@
         <v>740773</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>710106</v>
+        <v>711605</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>768984</v>
+        <v>768607</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7204154343872842</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6905916213929444</v>
+        <v>0.692049457143371</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.747850898445319</v>
+        <v>0.7474843207859794</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>71885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56863</v>
+        <v>58334</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87906</v>
+        <v>89525</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2224754747094227</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1759823628015581</v>
+        <v>0.1805350058743725</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2720573228674553</v>
+        <v>0.2770668242442949</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -3396,19 +3396,19 @@
         <v>110030</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93288</v>
+        <v>92537</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>127874</v>
+        <v>128371</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3226504920346768</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2735555104395896</v>
+        <v>0.2713532732299948</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.37497489983084</v>
+        <v>0.376433749719739</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -3417,19 +3417,19 @@
         <v>181916</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>158332</v>
+        <v>160802</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>205561</v>
+        <v>208313</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2739132509936089</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2384034131322583</v>
+        <v>0.2421220935706691</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3095167641718019</v>
+        <v>0.313660211446563</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>251231</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>235210</v>
+        <v>233591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>266253</v>
+        <v>264782</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7775245252905774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7279426771325448</v>
+        <v>0.7229331757557053</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8240176371984419</v>
+        <v>0.8194649941256276</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>214</v>
@@ -3467,19 +3467,19 @@
         <v>230990</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>213146</v>
+        <v>212649</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>247732</v>
+        <v>248483</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6773495079653232</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6250251001691601</v>
+        <v>0.623566250280261</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7264444895604105</v>
+        <v>0.7286467267700053</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>462</v>
@@ -3488,19 +3488,19 @@
         <v>482220</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>458575</v>
+        <v>455823</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>505804</v>
+        <v>503334</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7260867490063911</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6904832358281981</v>
+        <v>0.686339788553437</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7615965868677418</v>
+        <v>0.7578779064293308</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>73080</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57038</v>
+        <v>57318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89729</v>
+        <v>90413</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1954105468841321</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1525141840408876</v>
+        <v>0.1532646485165265</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2399281546677727</v>
+        <v>0.2417577410178476</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -3613,19 +3613,19 @@
         <v>157880</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>137273</v>
+        <v>137922</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>176388</v>
+        <v>177842</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4069345650357576</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.353819540666018</v>
+        <v>0.3554934428469863</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4546386287204285</v>
+        <v>0.4583857474865283</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>213</v>
@@ -3634,19 +3634,19 @@
         <v>230960</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>204886</v>
+        <v>202917</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>256452</v>
+        <v>256535</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3031147061289304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2688946320399421</v>
+        <v>0.2663100789224094</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3365699972476071</v>
+        <v>0.3366797696989847</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>300902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>284253</v>
+        <v>283569</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>316944</v>
+        <v>316664</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8045894531158678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7600718453322273</v>
+        <v>0.7582422589821524</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8474858159591123</v>
+        <v>0.8467353514834736</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>221</v>
@@ -3684,19 +3684,19 @@
         <v>230094</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>211586</v>
+        <v>210132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>250701</v>
+        <v>250052</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5930654349642424</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5453613712795715</v>
+        <v>0.5416142525134717</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.646180459333982</v>
+        <v>0.6445065571530137</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>501</v>
@@ -3705,19 +3705,19 @@
         <v>530996</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>505504</v>
+        <v>505421</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>557070</v>
+        <v>559039</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6968852938710696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6634300027523928</v>
+        <v>0.6633202303010153</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7311053679600579</v>
+        <v>0.7336899210775907</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>35900</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24765</v>
+        <v>25829</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48078</v>
+        <v>48322</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1688486632911696</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1164771813612944</v>
+        <v>0.1214821834910865</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2261230960708907</v>
+        <v>0.2272711655283028</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>92</v>
@@ -3830,19 +3830,19 @@
         <v>97495</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83405</v>
+        <v>83435</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113757</v>
+        <v>112575</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4439846867489991</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3798174791120393</v>
+        <v>0.3799580720868587</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5180381158439062</v>
+        <v>0.5126562415230137</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>125</v>
@@ -3851,19 +3851,19 @@
         <v>133395</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>114706</v>
+        <v>114532</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>153479</v>
+        <v>151791</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3086361018319973</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2653945559200807</v>
+        <v>0.2649917031058043</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3551031044838171</v>
+        <v>0.351198791669032</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>176718</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164540</v>
+        <v>164296</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187853</v>
+        <v>186789</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8311513367088305</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7738769039291093</v>
+        <v>0.7727288344716975</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8835228186387056</v>
+        <v>0.8785178165089136</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>120</v>
@@ -3901,19 +3901,19 @@
         <v>122096</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>105834</v>
+        <v>107016</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>136186</v>
+        <v>136156</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.556015313251001</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4819618841560938</v>
+        <v>0.4873437584769863</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6201825208879607</v>
+        <v>0.6200419279131413</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>283</v>
@@ -3922,19 +3922,19 @@
         <v>298814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>278730</v>
+        <v>280418</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>317503</v>
+        <v>317677</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6913638981680027</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6448968955161829</v>
+        <v>0.648801208330968</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7346054440799192</v>
+        <v>0.7350082968941958</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>53002</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39567</v>
+        <v>40960</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66024</v>
+        <v>66774</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1934504261027614</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1444137986367839</v>
+        <v>0.1494990900229926</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2409800972747182</v>
+        <v>0.2437179483996417</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -4047,19 +4047,19 @@
         <v>105811</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>89847</v>
+        <v>88303</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120945</v>
+        <v>120368</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3790607201615153</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3218695357698455</v>
+        <v>0.3163385331352033</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4332779164425757</v>
+        <v>0.4312096101135449</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>153</v>
@@ -4068,19 +4068,19 @@
         <v>158813</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>137974</v>
+        <v>139410</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>183575</v>
+        <v>182218</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2871212359394777</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2494461271388948</v>
+        <v>0.2520424619837785</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3318898213637899</v>
+        <v>0.3294351701611171</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>220979</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207957</v>
+        <v>207207</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234414</v>
+        <v>233021</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8065495738972386</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7590199027252817</v>
+        <v>0.7562820516003583</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8555862013632161</v>
+        <v>0.8505009099770076</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>167</v>
@@ -4118,19 +4118,19 @@
         <v>173329</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>158195</v>
+        <v>158772</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>189293</v>
+        <v>190837</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6209392798384847</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5667220835574243</v>
+        <v>0.5687903898864551</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6781304642301546</v>
+        <v>0.6836614668647967</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>376</v>
@@ -4139,19 +4139,19 @@
         <v>394308</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>369546</v>
+        <v>370903</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>415147</v>
+        <v>413711</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7128787640605223</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6681101786362098</v>
+        <v>0.6705648298388831</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.750553872861105</v>
+        <v>0.7479575380162217</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>111374</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>92720</v>
+        <v>91099</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>132970</v>
+        <v>131540</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.168038833034324</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1398933664898978</v>
+        <v>0.1374485694687899</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.200621523812939</v>
+        <v>0.1984643420429021</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>207</v>
@@ -4264,19 +4264,19 @@
         <v>224307</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>199755</v>
+        <v>199244</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>250303</v>
+        <v>248882</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3232776507262014</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.287892160771441</v>
+        <v>0.2871557753615185</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3607431097184598</v>
+        <v>0.3586952140006273</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>311</v>
@@ -4285,19 +4285,19 @@
         <v>335681</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>303036</v>
+        <v>305286</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>368392</v>
+        <v>372606</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2474356034660158</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2233723783343536</v>
+        <v>0.225031078485741</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2715468072768547</v>
+        <v>0.274653490961712</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>551414</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>529818</v>
+        <v>531248</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>570068</v>
+        <v>571689</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.831961166965676</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.799378476187061</v>
+        <v>0.8015356579570979</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8601066335101022</v>
+        <v>0.86255143053121</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>429</v>
@@ -4335,19 +4335,19 @@
         <v>469546</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>443550</v>
+        <v>444971</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>494098</v>
+        <v>494609</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6767223492737986</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6392568902815403</v>
+        <v>0.6413047859993727</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.712107839228559</v>
+        <v>0.7128442246384815</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>943</v>
@@ -4356,19 +4356,19 @@
         <v>1020960</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>988249</v>
+        <v>984035</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1053605</v>
+        <v>1051355</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7525643965339842</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7284531927231451</v>
+        <v>0.7253465090382879</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7766276216656464</v>
+        <v>0.7749689215142589</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>110609</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91775</v>
+        <v>89820</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132615</v>
+        <v>130484</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1423587812782645</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1181187173522275</v>
+        <v>0.1156031065384176</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1706816549634569</v>
+        <v>0.1679390168760702</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>219</v>
@@ -4481,19 +4481,19 @@
         <v>239046</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>216265</v>
+        <v>214998</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>267594</v>
+        <v>266338</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2905611286002871</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2628717848909309</v>
+        <v>0.2613314102160413</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.325261442643962</v>
+        <v>0.3237355792805182</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>319</v>
@@ -4502,19 +4502,19 @@
         <v>349654</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>319813</v>
+        <v>319875</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>388128</v>
+        <v>387877</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2185783526447665</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1999236207903237</v>
+        <v>0.1999624476422978</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2426291760884896</v>
+        <v>0.2424720828055066</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>666363</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>644357</v>
+        <v>646488</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>685197</v>
+        <v>687152</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8576412187217355</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8293183450365431</v>
+        <v>0.8320609831239297</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8818812826477724</v>
+        <v>0.8843968934615823</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>537</v>
@@ -4552,19 +4552,19 @@
         <v>583657</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>555109</v>
+        <v>556365</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>606438</v>
+        <v>607705</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.709438871399713</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6747385573560377</v>
+        <v>0.6762644207194818</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.737128215109069</v>
+        <v>0.7386685897839587</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1152</v>
@@ -4573,19 +4573,19 @@
         <v>1250021</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1211547</v>
+        <v>1211798</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1279862</v>
+        <v>1279800</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7814216473552336</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7573708239115108</v>
+        <v>0.7575279171944934</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8000763792096763</v>
+        <v>0.8000375523577022</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>611383</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>563982</v>
+        <v>564034</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>658393</v>
+        <v>657111</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1787052141991832</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1648501457766606</v>
+        <v>0.1648653392454351</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1924461625630186</v>
+        <v>0.1920714338510955</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1099</v>
@@ -4698,19 +4698,19 @@
         <v>1188971</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1128510</v>
+        <v>1135421</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1242133</v>
+        <v>1253783</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3348275888393799</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3178010260793847</v>
+        <v>0.319747394178202</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3497987006425895</v>
+        <v>0.3530793757372668</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1667</v>
@@ -4719,19 +4719,19 @@
         <v>1800354</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1728664</v>
+        <v>1726844</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1880553</v>
+        <v>1873957</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2582198294252957</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.24793757151704</v>
+        <v>0.2476765727189154</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2697226592244747</v>
+        <v>0.2687765903775313</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2809796</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2762786</v>
+        <v>2764068</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2857197</v>
+        <v>2857145</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8212947858008168</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8075538374369812</v>
+        <v>0.8079285661489044</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8351498542233392</v>
+        <v>0.8351346607545649</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2192</v>
@@ -4769,19 +4769,19 @@
         <v>2362024</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2308862</v>
+        <v>2297212</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2422485</v>
+        <v>2415574</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6651724111606201</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6502012993574106</v>
+        <v>0.6469206242627329</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6821989739206152</v>
+        <v>0.680252605821798</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4827</v>
@@ -4790,19 +4790,19 @@
         <v>5171820</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5091621</v>
+        <v>5098217</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5243510</v>
+        <v>5245330</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7417801705747044</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7302773407755255</v>
+        <v>0.7312234096224688</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7520624284829599</v>
+        <v>0.7523234272810848</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>63251</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49339</v>
+        <v>50163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79880</v>
+        <v>80734</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2153155837598037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1679570823407031</v>
+        <v>0.1707615347555043</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2719204084237378</v>
+        <v>0.2748305177879792</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -5159,19 +5159,19 @@
         <v>96556</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81031</v>
+        <v>80081</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112355</v>
+        <v>113672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3344488018362242</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.280672549952095</v>
+        <v>0.2773802630138024</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3891711738780418</v>
+        <v>0.3937326134479845</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>151</v>
@@ -5180,19 +5180,19 @@
         <v>159808</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>140958</v>
+        <v>138908</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>185416</v>
+        <v>181472</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2743649282697673</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2420030642813382</v>
+        <v>0.2384832770557099</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3183305467504242</v>
+        <v>0.3115596954424105</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>230510</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>213881</v>
+        <v>213027</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>244422</v>
+        <v>243598</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7846844162401964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7280795915762622</v>
+        <v>0.7251694822120208</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8320429176592969</v>
+        <v>0.8292384652444956</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -5230,19 +5230,19 @@
         <v>192147</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>176348</v>
+        <v>175031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>207672</v>
+        <v>208622</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6655511981637758</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6108288261219582</v>
+        <v>0.6062673865520154</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.719327450047905</v>
+        <v>0.7226197369861976</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>392</v>
@@ -5251,19 +5251,19 @@
         <v>422656</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>397048</v>
+        <v>400992</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>441506</v>
+        <v>443556</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7256350717302327</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6816694532495758</v>
+        <v>0.6884403045575895</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7579969357186618</v>
+        <v>0.7615167229442901</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>85931</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69980</v>
+        <v>69810</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102096</v>
+        <v>104312</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1709808598805864</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1392435905237834</v>
+        <v>0.1389054935283365</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2031461340570378</v>
+        <v>0.2075553075454674</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>142</v>
@@ -5376,19 +5376,19 @@
         <v>156607</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>136205</v>
+        <v>135121</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>178924</v>
+        <v>179829</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.299392447629918</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2603878271943623</v>
+        <v>0.2583166346266811</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3420557496880632</v>
+        <v>0.343785152064297</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>224</v>
@@ -5397,19 +5397,19 @@
         <v>242538</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>216142</v>
+        <v>213999</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>276049</v>
+        <v>273579</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2364704848818225</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2107343907037959</v>
+        <v>0.2086458157140535</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2691431549229648</v>
+        <v>0.2667350399961333</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>416644</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>400479</v>
+        <v>398263</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>432595</v>
+        <v>432765</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8290191401194137</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.796853865942962</v>
+        <v>0.7924446924545316</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8607564094762166</v>
+        <v>0.8610945064716634</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>342</v>
@@ -5447,19 +5447,19 @@
         <v>366477</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>344160</v>
+        <v>343255</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>386879</v>
+        <v>387963</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7006075523700821</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6579442503119369</v>
+        <v>0.6562148479357025</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7396121728056377</v>
+        <v>0.7416833653733186</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>735</v>
@@ -5468,19 +5468,19 @@
         <v>783121</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>749610</v>
+        <v>752080</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>809517</v>
+        <v>811660</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7635295151181776</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7308568450770351</v>
+        <v>0.733264960003867</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.789265609296204</v>
+        <v>0.7913541842859466</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>62523</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50003</v>
+        <v>50227</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77602</v>
+        <v>75721</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1962644894502871</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1569626366592687</v>
+        <v>0.1576670739196819</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2435996849260536</v>
+        <v>0.2376944100684958</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -5593,19 +5593,19 @@
         <v>111047</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93445</v>
+        <v>95589</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129452</v>
+        <v>129194</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3301920455998925</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2778532952743567</v>
+        <v>0.2842290406147592</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3849205052201067</v>
+        <v>0.3841527579840977</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -5614,19 +5614,19 @@
         <v>173570</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>153015</v>
+        <v>151337</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198321</v>
+        <v>196814</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.26504267086544</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2336562923100086</v>
+        <v>0.2310926501279462</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3028388465931495</v>
+        <v>0.3005374109224764</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>256042</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>240963</v>
+        <v>242844</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>268562</v>
+        <v>268338</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8037355105497129</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7564003150739466</v>
+        <v>0.7623055899315042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8430373633407313</v>
+        <v>0.8423329260803183</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>227</v>
@@ -5664,19 +5664,19 @@
         <v>225262</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>206857</v>
+        <v>207115</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>242864</v>
+        <v>240720</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6698079544001074</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6150794947798932</v>
+        <v>0.6158472420159021</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.722146704725643</v>
+        <v>0.7157709593852406</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>494</v>
@@ -5685,19 +5685,19 @@
         <v>481304</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>456553</v>
+        <v>458060</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>501859</v>
+        <v>503537</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.73495732913456</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6971611534068507</v>
+        <v>0.6994625890775237</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7663437076899915</v>
+        <v>0.7689073498720538</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>104830</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>88067</v>
+        <v>88409</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121987</v>
+        <v>123695</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2833524992529337</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2380407677202353</v>
+        <v>0.2389669295821021</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3297254551947562</v>
+        <v>0.3343433810089708</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>162</v>
@@ -5810,19 +5810,19 @@
         <v>177603</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>158340</v>
+        <v>154743</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>197738</v>
+        <v>197934</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4585880070348083</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4088480599915464</v>
+        <v>0.3995605741224022</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5105776251907768</v>
+        <v>0.5110846507454507</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>261</v>
@@ -5831,19 +5831,19 @@
         <v>282434</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>256661</v>
+        <v>255912</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>309609</v>
+        <v>308665</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3729741595512543</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3389396700362868</v>
+        <v>0.3379509328647374</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4088617407610092</v>
+        <v>0.4076152700464396</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>265134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>247977</v>
+        <v>246269</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>281897</v>
+        <v>281555</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7166475007470663</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6702745448052443</v>
+        <v>0.6656566189910291</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.761959232279765</v>
+        <v>0.7610330704178979</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>196</v>
@@ -5881,19 +5881,19 @@
         <v>209680</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>189545</v>
+        <v>189349</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>228943</v>
+        <v>232540</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5414119929651917</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4894223748092232</v>
+        <v>0.4889153492545493</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5911519400084536</v>
+        <v>0.6004394258775978</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>451</v>
@@ -5902,19 +5902,19 @@
         <v>474813</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>447638</v>
+        <v>448582</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>500586</v>
+        <v>501335</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6270258404487457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5911382592389909</v>
+        <v>0.5923847299535604</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6610603299637132</v>
+        <v>0.6620490671352626</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>29331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20589</v>
+        <v>20480</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40781</v>
+        <v>41147</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1388629804467982</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09747682237196328</v>
+        <v>0.09696212150334682</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1930733330677233</v>
+        <v>0.1948045920637262</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -6027,19 +6027,19 @@
         <v>64912</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52281</v>
+        <v>51617</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79986</v>
+        <v>78745</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2969636751276772</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2391781354578454</v>
+        <v>0.236138805351472</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3659232202841006</v>
+        <v>0.3602434932920056</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -6048,19 +6048,19 @@
         <v>94243</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>78361</v>
+        <v>77510</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>112584</v>
+        <v>112749</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2192680838609102</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1823173716795099</v>
+        <v>0.1803374713814219</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2619407333432612</v>
+        <v>0.26232348850048</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>181890</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>170440</v>
+        <v>170074</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190632</v>
+        <v>190741</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8611370195532018</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8069266669322768</v>
+        <v>0.805195407936274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9025231776280367</v>
+        <v>0.9030378784966532</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>158</v>
@@ -6098,19 +6098,19 @@
         <v>153675</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>138601</v>
+        <v>139842</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>166306</v>
+        <v>166970</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7030363248723228</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6340767797158994</v>
+        <v>0.6397565067079942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7608218645421546</v>
+        <v>0.763861194648528</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>341</v>
@@ -6119,19 +6119,19 @@
         <v>335565</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>317224</v>
+        <v>317059</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>351447</v>
+        <v>352298</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7807319161390898</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7380592666567386</v>
+        <v>0.73767651149952</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8176826283204901</v>
+        <v>0.819662528618578</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>39734</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29490</v>
+        <v>29186</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52891</v>
+        <v>54167</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1510095319246885</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.112077026151584</v>
+        <v>0.110921488824219</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2010111168174372</v>
+        <v>0.2058602537363122</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -6244,19 +6244,19 @@
         <v>69383</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55534</v>
+        <v>55756</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86445</v>
+        <v>84279</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2540423857928765</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2033369503973389</v>
+        <v>0.2041474672085834</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3165133157674666</v>
+        <v>0.308583778234554</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -6265,19 +6265,19 @@
         <v>109117</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91799</v>
+        <v>90952</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>129927</v>
+        <v>128853</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.203485891207704</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1711913884797585</v>
+        <v>0.169610727246648</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2422930155701309</v>
+        <v>0.240290361740058</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>223389</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>210232</v>
+        <v>208956</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233633</v>
+        <v>233937</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8489904680753115</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7989888831825629</v>
+        <v>0.7941397462636877</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.887922973848416</v>
+        <v>0.8890785111757811</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>200</v>
@@ -6315,19 +6315,19 @@
         <v>203732</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>186670</v>
+        <v>188836</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>217581</v>
+        <v>217359</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7459576142071235</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6834866842325327</v>
+        <v>0.6914162217654453</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7966630496026608</v>
+        <v>0.7958525327914163</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>421</v>
@@ -6336,19 +6336,19 @@
         <v>427121</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>406311</v>
+        <v>407385</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>444439</v>
+        <v>445286</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.796514108792296</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7577069844298691</v>
+        <v>0.7597096382599418</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8288086115202414</v>
+        <v>0.8303892727533519</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>98385</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81805</v>
+        <v>79937</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>118785</v>
+        <v>119293</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1498499340371432</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1245969946085507</v>
+        <v>0.1217520544750915</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1809202083163594</v>
+        <v>0.1816950443196729</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>138</v>
@@ -6461,19 +6461,19 @@
         <v>152057</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>130269</v>
+        <v>131097</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>175451</v>
+        <v>175846</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2199603733159394</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1884422478155564</v>
+        <v>0.1896399904044475</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.253800305232643</v>
+        <v>0.2543717992697757</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>227</v>
@@ -6482,19 +6482,19 @@
         <v>250442</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>222649</v>
+        <v>223623</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>279355</v>
+        <v>281840</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1858085749948728</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1651878998941764</v>
+        <v>0.165910682447092</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2072595570343155</v>
+        <v>0.2091031856087955</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>558173</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>537773</v>
+        <v>537265</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>574753</v>
+        <v>576621</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8501500659628568</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8190797916836405</v>
+        <v>0.8183049556803271</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8754030053914493</v>
+        <v>0.8782479455249085</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>508</v>
@@ -6532,19 +6532,19 @@
         <v>539237</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>515843</v>
+        <v>515448</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>561025</v>
+        <v>560197</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7800396266840606</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7461996947673565</v>
+        <v>0.7456282007302244</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8115577521844435</v>
+        <v>0.8103600095955527</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>999</v>
@@ -6553,19 +6553,19 @@
         <v>1097410</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1068497</v>
+        <v>1066012</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1125203</v>
+        <v>1124229</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8141914250051272</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7927404429656846</v>
+        <v>0.7908968143912046</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8348121001058236</v>
+        <v>0.834089317552908</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>156460</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>134953</v>
+        <v>135176</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>179322</v>
+        <v>182998</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2009549665282514</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1733313885917762</v>
+        <v>0.1736183565581262</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2303185073820922</v>
+        <v>0.2350403770236187</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>244</v>
@@ -6678,19 +6678,19 @@
         <v>274190</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>245648</v>
+        <v>246857</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>303764</v>
+        <v>300323</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3318822450397615</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2973347838101955</v>
+        <v>0.2987980467807558</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3676789314506737</v>
+        <v>0.363513587059833</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>394</v>
@@ -6699,19 +6699,19 @@
         <v>430650</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>396758</v>
+        <v>393644</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>466881</v>
+        <v>464621</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2683597319115055</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2472397171112855</v>
+        <v>0.2452993873209655</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2909369500097245</v>
+        <v>0.2895283984728478</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>622123</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>599261</v>
+        <v>595585</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>643630</v>
+        <v>643407</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7990450334717486</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7696814926179077</v>
+        <v>0.7649596229763813</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8266686114082237</v>
+        <v>0.8263816434418737</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>511</v>
@@ -6749,19 +6749,19 @@
         <v>551977</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>522403</v>
+        <v>525844</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>580519</v>
+        <v>579310</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6681177549602385</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6323210685493263</v>
+        <v>0.6364864129401672</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7026652161898046</v>
+        <v>0.7012019532192443</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1111</v>
@@ -6770,19 +6770,19 @@
         <v>1174100</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1137869</v>
+        <v>1140129</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1207992</v>
+        <v>1211106</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7316402680884945</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7090630499902756</v>
+        <v>0.7104716015271523</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7527602828887145</v>
+        <v>0.7547006126790347</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>640445</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>594649</v>
+        <v>593917</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>687321</v>
+        <v>689624</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1886798338426785</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1751879008859406</v>
+        <v>0.1749721125682354</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.20248983404212</v>
+        <v>0.2031682535939748</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1013</v>
@@ -6895,19 +6895,19 @@
         <v>1102356</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1042295</v>
+        <v>1049412</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1156622</v>
+        <v>1162413</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3110010539459085</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2940562672165521</v>
+        <v>0.2960643062535912</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3263107521241219</v>
+        <v>0.3279445828192219</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1625</v>
@@ -6916,19 +6916,19 @@
         <v>1742802</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1669429</v>
+        <v>1671864</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1814773</v>
+        <v>1814049</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2511642594031444</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.240590137689512</v>
+        <v>0.240941095783637</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2615364876246478</v>
+        <v>0.2614320272823652</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2753905</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2707029</v>
+        <v>2704726</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2799701</v>
+        <v>2800433</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8113201661573215</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7975101659578799</v>
+        <v>0.7968317464060253</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8248120991140595</v>
+        <v>0.8250278874317646</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2325</v>
@@ -6966,19 +6966,19 @@
         <v>2442186</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2387920</v>
+        <v>2382129</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2502247</v>
+        <v>2495130</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6889989460540914</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6736892478758777</v>
+        <v>0.6720554171807781</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7059437327834478</v>
+        <v>0.7039356937464087</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4944</v>
@@ -6987,19 +6987,19 @@
         <v>5196090</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5124119</v>
+        <v>5124843</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5269463</v>
+        <v>5267028</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7488357405968556</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7384635123753522</v>
+        <v>0.7385679727176347</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7594098623104881</v>
+        <v>0.7590589042163632</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>95102</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79531</v>
+        <v>79760</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112307</v>
+        <v>112978</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2982706014211389</v>
+        <v>0.298270601421139</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2494332457600135</v>
+        <v>0.2501533951463047</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3522321679574414</v>
+        <v>0.3543349556909655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>240</v>
@@ -7356,19 +7356,19 @@
         <v>136010</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>122889</v>
+        <v>121157</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>151577</v>
+        <v>151835</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4303267524256888</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3888155052275442</v>
+        <v>0.3833357489045054</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4795806685076133</v>
+        <v>0.4803972491987519</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>343</v>
@@ -7377,19 +7377,19 @@
         <v>231112</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>210696</v>
+        <v>209661</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>254328</v>
+        <v>254062</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.364009083947488</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3318541271408773</v>
+        <v>0.3302237175571427</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.400575929457432</v>
+        <v>0.4001561214949945</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>223743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>206538</v>
+        <v>205867</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>239314</v>
+        <v>239085</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7017293985788611</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6477678320425588</v>
+        <v>0.6456650443090346</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7505667542399865</v>
+        <v>0.7498466048536954</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>298</v>
@@ -7427,19 +7427,19 @@
         <v>180051</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>164484</v>
+        <v>164226</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>193172</v>
+        <v>194904</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5696732475743111</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5204193314923864</v>
+        <v>0.5196027508012483</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6111844947724561</v>
+        <v>0.6166642510954951</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>526</v>
@@ -7448,19 +7448,19 @@
         <v>403794</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>380578</v>
+        <v>380844</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>424210</v>
+        <v>425245</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.635990916052512</v>
+        <v>0.6359909160525119</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5994240705425677</v>
+        <v>0.5998438785050055</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6681458728591226</v>
+        <v>0.6697762824428573</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>123088</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>102092</v>
+        <v>102505</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>147712</v>
+        <v>147015</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2319591261612219</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.192391727553115</v>
+        <v>0.1931693214598597</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2783614244540066</v>
+        <v>0.2770490794631585</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>310</v>
@@ -7573,19 +7573,19 @@
         <v>218316</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>199368</v>
+        <v>200373</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>240813</v>
+        <v>239208</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3999853151514087</v>
+        <v>0.3999853151514088</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3652714743785214</v>
+        <v>0.3671115052722971</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4412039790003348</v>
+        <v>0.4382628857530616</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>412</v>
@@ -7594,19 +7594,19 @@
         <v>341404</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>310132</v>
+        <v>311661</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>370562</v>
+        <v>374494</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3171555898990902</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.288104687556366</v>
+        <v>0.2895247928310063</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3442428934001251</v>
+        <v>0.3478956906429568</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>407559</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>382935</v>
+        <v>383632</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>428555</v>
+        <v>428142</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7680408738387779</v>
+        <v>0.7680408738387781</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7216385755459934</v>
+        <v>0.7229509205368414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8076082724468848</v>
+        <v>0.8068306785401403</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>406</v>
@@ -7644,19 +7644,19 @@
         <v>327493</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>304996</v>
+        <v>306601</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>346441</v>
+        <v>345436</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6000146848485911</v>
+        <v>0.6000146848485912</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5587960209996652</v>
+        <v>0.5617371142469383</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6347285256214785</v>
+        <v>0.632888494727703</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>686</v>
@@ -7665,19 +7665,19 @@
         <v>735052</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>705894</v>
+        <v>701962</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>766324</v>
+        <v>764795</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6828444101009098</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6557571065998747</v>
+        <v>0.6521043093570432</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.711895312443634</v>
+        <v>0.7104752071689938</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>92500</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78935</v>
+        <v>78293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108680</v>
+        <v>109534</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2927291453283906</v>
+        <v>0.2927291453283907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2497984668446913</v>
+        <v>0.2477677403210437</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3439314251479405</v>
+        <v>0.3466347022510602</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>256</v>
@@ -7790,19 +7790,19 @@
         <v>152216</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>138294</v>
+        <v>137516</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>167389</v>
+        <v>167869</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4271163441223187</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.388049846657005</v>
+        <v>0.385867929553592</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4696925188256641</v>
+        <v>0.4710373285575165</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>373</v>
@@ -7811,19 +7811,19 @@
         <v>244717</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>223273</v>
+        <v>224378</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>266668</v>
+        <v>267020</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3639589003048046</v>
+        <v>0.3639589003048045</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3320662721638533</v>
+        <v>0.3337101897118348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3966064770092221</v>
+        <v>0.3971291351763599</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>223493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>207313</v>
+        <v>206459</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>237058</v>
+        <v>237700</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7072708546716094</v>
+        <v>0.7072708546716093</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6560685748520595</v>
+        <v>0.6533652977489399</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7502015331553086</v>
+        <v>0.7522322596789563</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>280</v>
@@ -7861,19 +7861,19 @@
         <v>204165</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>188992</v>
+        <v>188512</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>218087</v>
+        <v>218865</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5728836558776814</v>
+        <v>0.5728836558776813</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5303074811743359</v>
+        <v>0.5289626714424832</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6119501533429949</v>
+        <v>0.6141320704464079</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>523</v>
@@ -7882,19 +7882,19 @@
         <v>427658</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>405707</v>
+        <v>405355</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>449102</v>
+        <v>447997</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6360410996951955</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6033935229907775</v>
+        <v>0.6028708648236401</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6679337278361466</v>
+        <v>0.6662898102881651</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>109647</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87397</v>
+        <v>89954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133700</v>
+        <v>134102</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2938465538733918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2342175584738176</v>
+        <v>0.2410691905126111</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3583061349083708</v>
+        <v>0.3593827865218113</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>302</v>
@@ -8007,19 +8007,19 @@
         <v>183414</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>165405</v>
+        <v>163720</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201721</v>
+        <v>202771</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4346701001172149</v>
+        <v>0.4346701001172151</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3919909482299238</v>
+        <v>0.3879984127269689</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.478055567288818</v>
+        <v>0.4805439102478866</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>394</v>
@@ -8028,19 +8028,19 @@
         <v>293062</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>265606</v>
+        <v>262947</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>325707</v>
+        <v>323819</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3685813117752217</v>
+        <v>0.3685813117752216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3340510651543337</v>
+        <v>0.3307066593333911</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4096386912997067</v>
+        <v>0.4072645727755081</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>263498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>239445</v>
+        <v>239043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>285748</v>
+        <v>283191</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7061534461266084</v>
+        <v>0.7061534461266082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.641693865091629</v>
+        <v>0.6406172134781887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7657824415261819</v>
+        <v>0.758930809487389</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>297</v>
@@ -8078,19 +8078,19 @@
         <v>238547</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>220240</v>
+        <v>219190</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>256556</v>
+        <v>258241</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.565329899882785</v>
+        <v>0.5653298998827853</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5219444327111821</v>
+        <v>0.5194560897521135</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6080090517700762</v>
+        <v>0.6120015872730313</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>497</v>
@@ -8099,19 +8099,19 @@
         <v>502045</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>469400</v>
+        <v>471288</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>529501</v>
+        <v>532160</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6314186882247783</v>
+        <v>0.6314186882247784</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5903613087002932</v>
+        <v>0.5927354272244924</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6659489348456662</v>
+        <v>0.6692933406666091</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>44614</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35851</v>
+        <v>34853</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54447</v>
+        <v>54142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2169248446828396</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1743197395501014</v>
+        <v>0.1694657596542646</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2647365625412439</v>
+        <v>0.2632548616833802</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>206</v>
@@ -8224,19 +8224,19 @@
         <v>85669</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>76253</v>
+        <v>76618</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96329</v>
+        <v>96766</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3770374233489284</v>
+        <v>0.3770374233489282</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3355974568766363</v>
+        <v>0.3372044103928357</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4239574277274688</v>
+        <v>0.4258806630521597</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>274</v>
@@ -8245,19 +8245,19 @@
         <v>130282</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>115396</v>
+        <v>115673</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144554</v>
+        <v>144393</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3009665652426688</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2665773634397725</v>
+        <v>0.2672189352706276</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3339361773835006</v>
+        <v>0.3335654754842444</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>161051</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>151218</v>
+        <v>151523</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169814</v>
+        <v>170812</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7830751553171602</v>
+        <v>0.7830751553171605</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.735263437458756</v>
+        <v>0.7367451383166198</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8256802604498985</v>
+        <v>0.8305342403457352</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>286</v>
@@ -8295,19 +8295,19 @@
         <v>141546</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>130886</v>
+        <v>130449</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>150962</v>
+        <v>150597</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6229625766510717</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5760425722725314</v>
+        <v>0.5741193369478403</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.664402543123364</v>
+        <v>0.6627955896071642</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>497</v>
@@ -8316,19 +8316,19 @@
         <v>302597</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>288325</v>
+        <v>288486</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>317483</v>
+        <v>317206</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6990334347573313</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6660638226164993</v>
+        <v>0.6664345245157557</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7334226365602274</v>
+        <v>0.7327810647293724</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>77002</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63855</v>
+        <v>65092</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>91178</v>
+        <v>90813</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2844470242656154</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2358836664807019</v>
+        <v>0.2404508877055715</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3368141113808847</v>
+        <v>0.3354664603323961</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>229</v>
@@ -8441,19 +8441,19 @@
         <v>113172</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100720</v>
+        <v>100216</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>125051</v>
+        <v>124915</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4290878694542878</v>
+        <v>0.4290878694542877</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3818757984315285</v>
+        <v>0.3799665633049445</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4741279218260946</v>
+        <v>0.473611169789761</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>352</v>
@@ -8462,19 +8462,19 @@
         <v>190174</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>172525</v>
+        <v>172279</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>207893</v>
+        <v>208598</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3558260983245173</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.32280444653791</v>
+        <v>0.3223433798406068</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3889791714753684</v>
+        <v>0.3902998480106095</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>193705</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>179529</v>
+        <v>179894</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>206852</v>
+        <v>205615</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7155529757343847</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6631858886191154</v>
+        <v>0.6645335396676039</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7641163335192975</v>
+        <v>0.7595491122944286</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>231</v>
@@ -8512,19 +8512,19 @@
         <v>150578</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>138699</v>
+        <v>138835</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>163030</v>
+        <v>163534</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5709121305457122</v>
+        <v>0.570912130545712</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5258720781739052</v>
+        <v>0.5263888302102391</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6181242015684724</v>
+        <v>0.6200334366950555</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>479</v>
@@ -8533,19 +8533,19 @@
         <v>344283</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>326564</v>
+        <v>325859</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>361932</v>
+        <v>362178</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6441739016754827</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6110208285246316</v>
+        <v>0.6097001519893906</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.67719555346209</v>
+        <v>0.6776566201593932</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>191537</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>164413</v>
+        <v>163770</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>219787</v>
+        <v>219553</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2661397843404327</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2284506470523626</v>
+        <v>0.2275568522584425</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3053928262623664</v>
+        <v>0.3050668015945714</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>406</v>
@@ -8658,19 +8658,19 @@
         <v>314274</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>289272</v>
+        <v>289303</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>339816</v>
+        <v>338764</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.407061185077487</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3746768791052766</v>
+        <v>0.3747167475666122</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4401442865233299</v>
+        <v>0.4387816619485017</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>565</v>
@@ -8679,19 +8679,19 @@
         <v>505812</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>470158</v>
+        <v>468883</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>551376</v>
+        <v>541995</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3390741047756184</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.31517353339457</v>
+        <v>0.3143187452420483</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3696183939671625</v>
+        <v>0.363329845108921</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>528150</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>499900</v>
+        <v>500134</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>555274</v>
+        <v>555917</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7338602156595675</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6946071737376336</v>
+        <v>0.6949331984054288</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7715493529476373</v>
+        <v>0.7724431477415574</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>554</v>
@@ -8729,19 +8729,19 @@
         <v>457783</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>432241</v>
+        <v>433293</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>482785</v>
+        <v>482754</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5929388149225129</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5598557134766701</v>
+        <v>0.5612183380514983</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6253231208947232</v>
+        <v>0.6252832524333872</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>994</v>
@@ -8750,19 +8750,19 @@
         <v>985932</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>940368</v>
+        <v>949749</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1021586</v>
+        <v>1022861</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6609258952243816</v>
+        <v>0.6609258952243817</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6303816060328373</v>
+        <v>0.6366701548910794</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6848264666054298</v>
+        <v>0.6856812547579516</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>105836</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>89024</v>
+        <v>87622</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>128182</v>
+        <v>123763</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1326143257093983</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1115485263300542</v>
+        <v>0.1097920840820624</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1606151584717589</v>
+        <v>0.1550780627795441</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>363</v>
@@ -8875,19 +8875,19 @@
         <v>251438</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>229681</v>
+        <v>230093</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>273171</v>
+        <v>275361</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3029350839871542</v>
+        <v>0.3029350839871543</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2767220710906323</v>
+        <v>0.2772184773022982</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3291196926758857</v>
+        <v>0.3317580633807629</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>483</v>
@@ -8896,19 +8896,19 @@
         <v>357274</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>327371</v>
+        <v>329111</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>387187</v>
+        <v>387955</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2194450726599008</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2010784763918747</v>
+        <v>0.2021466648734332</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2378184163792295</v>
+        <v>0.2382901506096365</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>692236</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>669890</v>
+        <v>674309</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>709048</v>
+        <v>710450</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8673856742906016</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8393848415282411</v>
+        <v>0.8449219372204559</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8884514736699458</v>
+        <v>0.890207915917937</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>697</v>
@@ -8946,19 +8946,19 @@
         <v>578568</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>556835</v>
+        <v>554645</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>600325</v>
+        <v>599913</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6970649160128458</v>
+        <v>0.6970649160128459</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6708803073241143</v>
+        <v>0.6682419366192371</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7232779289093677</v>
+        <v>0.7227815226977021</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1339</v>
@@ -8967,19 +8967,19 @@
         <v>1270804</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1240891</v>
+        <v>1240123</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1300707</v>
+        <v>1298967</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7805549273400992</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7621815836207705</v>
+        <v>0.7617098493903635</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7989215236081253</v>
+        <v>0.7978533351265668</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>839327</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>791251</v>
+        <v>786216</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>897094</v>
+        <v>901237</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2375838888482591</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2239752298481921</v>
+        <v>0.2225498395139767</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2539354557456325</v>
+        <v>0.2551084414640231</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2312</v>
@@ -9092,19 +9092,19 @@
         <v>1454508</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1404385</v>
+        <v>1400195</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1506251</v>
+        <v>1507723</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3896100984864916</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3761838882658177</v>
+        <v>0.3750614345574528</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4034701324145561</v>
+        <v>0.4038643515631061</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3196</v>
@@ -9113,19 +9113,19 @@
         <v>2293836</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2222807</v>
+        <v>2222154</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2369082</v>
+        <v>2374879</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3156942961967588</v>
+        <v>0.3156942961967587</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3059187822817134</v>
+        <v>0.3058289338494142</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.326050299827259</v>
+        <v>0.32684805892677</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2693435</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2635668</v>
+        <v>2631525</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2741511</v>
+        <v>2746546</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.762416111151741</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7460645442543676</v>
+        <v>0.744891558535977</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.776024770151808</v>
+        <v>0.7774501604860234</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3049</v>
@@ -9163,19 +9163,19 @@
         <v>2278733</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2226990</v>
+        <v>2225518</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2328856</v>
+        <v>2333046</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6103899015135084</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5965298675854438</v>
+        <v>0.5961356484368938</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6238161117341823</v>
+        <v>0.6249385654425473</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5541</v>
@@ -9184,19 +9184,19 @@
         <v>4972167</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4896921</v>
+        <v>4891124</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5043196</v>
+        <v>5043849</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6843057038032413</v>
+        <v>0.6843057038032412</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.673949700172741</v>
+        <v>0.6731519410732298</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6940812177182866</v>
+        <v>0.6941710661505857</v>
       </c>
     </row>
     <row r="30">
